--- a/po_analysis_by_asin/B0CBVXZSGJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0CBVXZSGJ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,129 +452,265 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>450</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45362</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45369</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45376</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45383</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45390</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45397</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45404</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45411</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B17" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B34" t="n">
         <v>60</v>
       </c>
     </row>
@@ -589,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,41 +747,89 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>870</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B6" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B12" t="n">
         <v>60</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CBVXZSGJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0CBVXZSGJ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -741,7 +742,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -831,6 +832,621 @@
       </c>
       <c r="B12" t="n">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>90</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-26.77093327242614</v>
+      </c>
+      <c r="D2" t="n">
+        <v>197.1036203628788</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>91</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-28.34435687463388</v>
+      </c>
+      <c r="D3" t="n">
+        <v>207.8012075928148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>91</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-25.00287120232229</v>
+      </c>
+      <c r="D4" t="n">
+        <v>215.0048090372464</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>92</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-32.49815683967188</v>
+      </c>
+      <c r="D5" t="n">
+        <v>210.7653738802321</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>93</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-14.92366384431766</v>
+      </c>
+      <c r="D6" t="n">
+        <v>209.4061595613706</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>94</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-26.24933489924188</v>
+      </c>
+      <c r="D7" t="n">
+        <v>209.3711668940096</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>94</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-21.86625020045173</v>
+      </c>
+      <c r="D8" t="n">
+        <v>218.5462916914325</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>94</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-16.23502117144345</v>
+      </c>
+      <c r="D9" t="n">
+        <v>215.9529779981974</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>95</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-18.17853770308538</v>
+      </c>
+      <c r="D10" t="n">
+        <v>215.4524976091776</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>95</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-24.90960848530657</v>
+      </c>
+      <c r="D11" t="n">
+        <v>211.0861733964272</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>96</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-27.82983061299649</v>
+      </c>
+      <c r="D12" t="n">
+        <v>213.7544628802802</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>96</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-22.68703067029572</v>
+      </c>
+      <c r="D13" t="n">
+        <v>204.5180303995768</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>96</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-23.57791828223142</v>
+      </c>
+      <c r="D14" t="n">
+        <v>214.655379359335</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>97</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-21.94801670307535</v>
+      </c>
+      <c r="D15" t="n">
+        <v>213.4135791371891</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>97</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-29.52334229425669</v>
+      </c>
+      <c r="D16" t="n">
+        <v>218.3971349698443</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>98</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-23.23096555389341</v>
+      </c>
+      <c r="D17" t="n">
+        <v>209.9529126406403</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>98</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-15.6058151912441</v>
+      </c>
+      <c r="D18" t="n">
+        <v>215.7791296110121</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>99</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-13.93347969246602</v>
+      </c>
+      <c r="D19" t="n">
+        <v>228.1001671279696</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-21.53004958963809</v>
+      </c>
+      <c r="D20" t="n">
+        <v>222.8758857606939</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-17.67023145991554</v>
+      </c>
+      <c r="D21" t="n">
+        <v>223.7289205864072</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>101</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-20.38312576890415</v>
+      </c>
+      <c r="D22" t="n">
+        <v>214.0526110220767</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>101</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-8.106147118195246</v>
+      </c>
+      <c r="D23" t="n">
+        <v>225.0447793476864</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>102</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-13.3536064660002</v>
+      </c>
+      <c r="D24" t="n">
+        <v>219.0930819703742</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>102</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-13.54960859064898</v>
+      </c>
+      <c r="D25" t="n">
+        <v>218.095429679047</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>103</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-10.66226555288068</v>
+      </c>
+      <c r="D26" t="n">
+        <v>222.9067643708891</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>103</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-9.829866958872639</v>
+      </c>
+      <c r="D27" t="n">
+        <v>219.3249956532548</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>104</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-5.419621121145923</v>
+      </c>
+      <c r="D28" t="n">
+        <v>225.2994468414389</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>104</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-11.40050020784378</v>
+      </c>
+      <c r="D29" t="n">
+        <v>230.9408855329721</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>104</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.07354437002106781</v>
+      </c>
+      <c r="D30" t="n">
+        <v>217.387668296385</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>105</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-10.51953142041465</v>
+      </c>
+      <c r="D31" t="n">
+        <v>223.6116570083973</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>105</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-19.30462578699729</v>
+      </c>
+      <c r="D32" t="n">
+        <v>220.3338567128682</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>105</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.564818926640104</v>
+      </c>
+      <c r="D33" t="n">
+        <v>232.2924919176567</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>106</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-9.670169872691014</v>
+      </c>
+      <c r="D34" t="n">
+        <v>228.5306240731021</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>106</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-9.780694146417416</v>
+      </c>
+      <c r="D35" t="n">
+        <v>211.6562361185798</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>107</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-10.4458088584146</v>
+      </c>
+      <c r="D36" t="n">
+        <v>228.7779752623345</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>107</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-17.25245505794212</v>
+      </c>
+      <c r="D37" t="n">
+        <v>226.7884921378349</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>107</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-14.15573141290012</v>
+      </c>
+      <c r="D38" t="n">
+        <v>221.5198974328387</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>108</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-12.2508455566622</v>
+      </c>
+      <c r="D39" t="n">
+        <v>227.7575086767751</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>108</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-10.87212763030814</v>
+      </c>
+      <c r="D40" t="n">
+        <v>217.5562546763895</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>109</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-13.40478912522432</v>
+      </c>
+      <c r="D41" t="n">
+        <v>232.5302084031013</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>109</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-9.150040054599762</v>
+      </c>
+      <c r="D42" t="n">
+        <v>228.9890211337084</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CBVXZSGJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0CBVXZSGJ_po_data.xlsx
@@ -845,7 +845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,16 +864,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -882,12 +872,6 @@
       <c r="B2" t="n">
         <v>90</v>
       </c>
-      <c r="C2" t="n">
-        <v>-26.77093327242614</v>
-      </c>
-      <c r="D2" t="n">
-        <v>197.1036203628788</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -896,12 +880,6 @@
       <c r="B3" t="n">
         <v>91</v>
       </c>
-      <c r="C3" t="n">
-        <v>-28.34435687463388</v>
-      </c>
-      <c r="D3" t="n">
-        <v>207.8012075928148</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -910,12 +888,6 @@
       <c r="B4" t="n">
         <v>91</v>
       </c>
-      <c r="C4" t="n">
-        <v>-25.00287120232229</v>
-      </c>
-      <c r="D4" t="n">
-        <v>215.0048090372464</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -924,12 +896,6 @@
       <c r="B5" t="n">
         <v>92</v>
       </c>
-      <c r="C5" t="n">
-        <v>-32.49815683967188</v>
-      </c>
-      <c r="D5" t="n">
-        <v>210.7653738802321</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -938,12 +904,6 @@
       <c r="B6" t="n">
         <v>93</v>
       </c>
-      <c r="C6" t="n">
-        <v>-14.92366384431766</v>
-      </c>
-      <c r="D6" t="n">
-        <v>209.4061595613706</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -952,12 +912,6 @@
       <c r="B7" t="n">
         <v>94</v>
       </c>
-      <c r="C7" t="n">
-        <v>-26.24933489924188</v>
-      </c>
-      <c r="D7" t="n">
-        <v>209.3711668940096</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -966,12 +920,6 @@
       <c r="B8" t="n">
         <v>94</v>
       </c>
-      <c r="C8" t="n">
-        <v>-21.86625020045173</v>
-      </c>
-      <c r="D8" t="n">
-        <v>218.5462916914325</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -980,12 +928,6 @@
       <c r="B9" t="n">
         <v>94</v>
       </c>
-      <c r="C9" t="n">
-        <v>-16.23502117144345</v>
-      </c>
-      <c r="D9" t="n">
-        <v>215.9529779981974</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -994,12 +936,6 @@
       <c r="B10" t="n">
         <v>95</v>
       </c>
-      <c r="C10" t="n">
-        <v>-18.17853770308538</v>
-      </c>
-      <c r="D10" t="n">
-        <v>215.4524976091776</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1008,12 +944,6 @@
       <c r="B11" t="n">
         <v>95</v>
       </c>
-      <c r="C11" t="n">
-        <v>-24.90960848530657</v>
-      </c>
-      <c r="D11" t="n">
-        <v>211.0861733964272</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,12 +952,6 @@
       <c r="B12" t="n">
         <v>96</v>
       </c>
-      <c r="C12" t="n">
-        <v>-27.82983061299649</v>
-      </c>
-      <c r="D12" t="n">
-        <v>213.7544628802802</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1036,12 +960,6 @@
       <c r="B13" t="n">
         <v>96</v>
       </c>
-      <c r="C13" t="n">
-        <v>-22.68703067029572</v>
-      </c>
-      <c r="D13" t="n">
-        <v>204.5180303995768</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1050,12 +968,6 @@
       <c r="B14" t="n">
         <v>96</v>
       </c>
-      <c r="C14" t="n">
-        <v>-23.57791828223142</v>
-      </c>
-      <c r="D14" t="n">
-        <v>214.655379359335</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1064,12 +976,6 @@
       <c r="B15" t="n">
         <v>97</v>
       </c>
-      <c r="C15" t="n">
-        <v>-21.94801670307535</v>
-      </c>
-      <c r="D15" t="n">
-        <v>213.4135791371891</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1078,12 +984,6 @@
       <c r="B16" t="n">
         <v>97</v>
       </c>
-      <c r="C16" t="n">
-        <v>-29.52334229425669</v>
-      </c>
-      <c r="D16" t="n">
-        <v>218.3971349698443</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1092,12 +992,6 @@
       <c r="B17" t="n">
         <v>98</v>
       </c>
-      <c r="C17" t="n">
-        <v>-23.23096555389341</v>
-      </c>
-      <c r="D17" t="n">
-        <v>209.9529126406403</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1106,12 +1000,6 @@
       <c r="B18" t="n">
         <v>98</v>
       </c>
-      <c r="C18" t="n">
-        <v>-15.6058151912441</v>
-      </c>
-      <c r="D18" t="n">
-        <v>215.7791296110121</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1120,12 +1008,6 @@
       <c r="B19" t="n">
         <v>99</v>
       </c>
-      <c r="C19" t="n">
-        <v>-13.93347969246602</v>
-      </c>
-      <c r="D19" t="n">
-        <v>228.1001671279696</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1134,12 +1016,6 @@
       <c r="B20" t="n">
         <v>100</v>
       </c>
-      <c r="C20" t="n">
-        <v>-21.53004958963809</v>
-      </c>
-      <c r="D20" t="n">
-        <v>222.8758857606939</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1148,12 +1024,6 @@
       <c r="B21" t="n">
         <v>100</v>
       </c>
-      <c r="C21" t="n">
-        <v>-17.67023145991554</v>
-      </c>
-      <c r="D21" t="n">
-        <v>223.7289205864072</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1162,12 +1032,6 @@
       <c r="B22" t="n">
         <v>101</v>
       </c>
-      <c r="C22" t="n">
-        <v>-20.38312576890415</v>
-      </c>
-      <c r="D22" t="n">
-        <v>214.0526110220767</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1176,12 +1040,6 @@
       <c r="B23" t="n">
         <v>101</v>
       </c>
-      <c r="C23" t="n">
-        <v>-8.106147118195246</v>
-      </c>
-      <c r="D23" t="n">
-        <v>225.0447793476864</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1190,12 +1048,6 @@
       <c r="B24" t="n">
         <v>102</v>
       </c>
-      <c r="C24" t="n">
-        <v>-13.3536064660002</v>
-      </c>
-      <c r="D24" t="n">
-        <v>219.0930819703742</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1204,12 +1056,6 @@
       <c r="B25" t="n">
         <v>102</v>
       </c>
-      <c r="C25" t="n">
-        <v>-13.54960859064898</v>
-      </c>
-      <c r="D25" t="n">
-        <v>218.095429679047</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1218,12 +1064,6 @@
       <c r="B26" t="n">
         <v>103</v>
       </c>
-      <c r="C26" t="n">
-        <v>-10.66226555288068</v>
-      </c>
-      <c r="D26" t="n">
-        <v>222.9067643708891</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1232,12 +1072,6 @@
       <c r="B27" t="n">
         <v>103</v>
       </c>
-      <c r="C27" t="n">
-        <v>-9.829866958872639</v>
-      </c>
-      <c r="D27" t="n">
-        <v>219.3249956532548</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1246,12 +1080,6 @@
       <c r="B28" t="n">
         <v>104</v>
       </c>
-      <c r="C28" t="n">
-        <v>-5.419621121145923</v>
-      </c>
-      <c r="D28" t="n">
-        <v>225.2994468414389</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1260,12 +1088,6 @@
       <c r="B29" t="n">
         <v>104</v>
       </c>
-      <c r="C29" t="n">
-        <v>-11.40050020784378</v>
-      </c>
-      <c r="D29" t="n">
-        <v>230.9408855329721</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1274,12 +1096,6 @@
       <c r="B30" t="n">
         <v>104</v>
       </c>
-      <c r="C30" t="n">
-        <v>-0.07354437002106781</v>
-      </c>
-      <c r="D30" t="n">
-        <v>217.387668296385</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1288,12 +1104,6 @@
       <c r="B31" t="n">
         <v>105</v>
       </c>
-      <c r="C31" t="n">
-        <v>-10.51953142041465</v>
-      </c>
-      <c r="D31" t="n">
-        <v>223.6116570083973</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1302,12 +1112,6 @@
       <c r="B32" t="n">
         <v>105</v>
       </c>
-      <c r="C32" t="n">
-        <v>-19.30462578699729</v>
-      </c>
-      <c r="D32" t="n">
-        <v>220.3338567128682</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1316,12 +1120,6 @@
       <c r="B33" t="n">
         <v>105</v>
       </c>
-      <c r="C33" t="n">
-        <v>1.564818926640104</v>
-      </c>
-      <c r="D33" t="n">
-        <v>232.2924919176567</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1330,12 +1128,6 @@
       <c r="B34" t="n">
         <v>106</v>
       </c>
-      <c r="C34" t="n">
-        <v>-9.670169872691014</v>
-      </c>
-      <c r="D34" t="n">
-        <v>228.5306240731021</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1344,12 +1136,6 @@
       <c r="B35" t="n">
         <v>106</v>
       </c>
-      <c r="C35" t="n">
-        <v>-9.780694146417416</v>
-      </c>
-      <c r="D35" t="n">
-        <v>211.6562361185798</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1358,12 +1144,6 @@
       <c r="B36" t="n">
         <v>107</v>
       </c>
-      <c r="C36" t="n">
-        <v>-10.4458088584146</v>
-      </c>
-      <c r="D36" t="n">
-        <v>228.7779752623345</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1372,12 +1152,6 @@
       <c r="B37" t="n">
         <v>107</v>
       </c>
-      <c r="C37" t="n">
-        <v>-17.25245505794212</v>
-      </c>
-      <c r="D37" t="n">
-        <v>226.7884921378349</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1386,12 +1160,6 @@
       <c r="B38" t="n">
         <v>107</v>
       </c>
-      <c r="C38" t="n">
-        <v>-14.15573141290012</v>
-      </c>
-      <c r="D38" t="n">
-        <v>221.5198974328387</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1400,12 +1168,6 @@
       <c r="B39" t="n">
         <v>108</v>
       </c>
-      <c r="C39" t="n">
-        <v>-12.2508455566622</v>
-      </c>
-      <c r="D39" t="n">
-        <v>227.7575086767751</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1414,12 +1176,6 @@
       <c r="B40" t="n">
         <v>108</v>
       </c>
-      <c r="C40" t="n">
-        <v>-10.87212763030814</v>
-      </c>
-      <c r="D40" t="n">
-        <v>217.5562546763895</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1428,12 +1184,6 @@
       <c r="B41" t="n">
         <v>109</v>
       </c>
-      <c r="C41" t="n">
-        <v>-13.40478912522432</v>
-      </c>
-      <c r="D41" t="n">
-        <v>232.5302084031013</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1441,12 +1191,6 @@
       </c>
       <c r="B42" t="n">
         <v>109</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-9.150040054599762</v>
-      </c>
-      <c r="D42" t="n">
-        <v>228.9890211337084</v>
       </c>
     </row>
   </sheetData>
